--- a/apartmentManage/Data/services.xlsx
+++ b/apartmentManage/Data/services.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>service_id</t>
   </si>
@@ -23,6 +23,9 @@
     <t>service_type</t>
   </si>
   <si>
+    <t>relevant</t>
+  </si>
+  <si>
     <t>price</t>
   </si>
   <si>
@@ -41,19 +44,22 @@
     <t>Cố định</t>
   </si>
   <si>
-    <t>200000.00</t>
-  </si>
-  <si>
-    <t>VNĐ/tháng</t>
-  </si>
-  <si>
-    <t>Phí quản lý chung cư hằng tháng</t>
+    <t>Căn hộ</t>
+  </si>
+  <si>
+    <t>500000.00</t>
+  </si>
+  <si>
+    <t>tháng</t>
+  </si>
+  <si>
+    <t>Phí quản lý chung cư</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>Tiền điện</t>
+    <t>Điện</t>
   </si>
   <si>
     <t>Tính theo sử dụng</t>
@@ -62,61 +68,25 @@
     <t>3500.00</t>
   </si>
   <si>
-    <t>VNĐ/kWh</t>
-  </si>
-  <si>
-    <t>Tính theo số kWh điện tiêu thụ</t>
+    <t>kWh</t>
+  </si>
+  <si>
+    <t>Tính theo số điện sử dụng</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>Tiền nước</t>
-  </si>
-  <si>
-    <t>7000.00</t>
-  </si>
-  <si>
-    <t>VNĐ/m³</t>
-  </si>
-  <si>
-    <t>Tính theo số mét khối nước tiêu thụ</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Gửi xe máy</t>
-  </si>
-  <si>
-    <t>100000.00</t>
-  </si>
-  <si>
-    <t>Phí gửi xe máy theo tháng</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Internet</t>
-  </si>
-  <si>
-    <t>150000.00</t>
-  </si>
-  <si>
-    <t>Phí dịch vụ internet cố định hằng tháng</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Vệ sinh</t>
-  </si>
-  <si>
-    <t>75000.00</t>
-  </si>
-  <si>
-    <t>Tính theo tháng nếu căn hộ có đăng ký rác</t>
+    <t>Nước</t>
+  </si>
+  <si>
+    <t>15000.00</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>Tính theo lượng nước sử dụng</t>
   </si>
 </sst>
 </file>
@@ -161,7 +131,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -186,125 +156,77 @@
       <c r="F1" t="s" s="0">
         <v>5</v>
       </c>
+      <c r="G1" t="s" s="0">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="G4" t="s" s="0">
         <v>24</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s" s="0">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/apartmentManage/Data/services.xlsx
+++ b/apartmentManage/Data/services.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>service_id</t>
   </si>
@@ -23,9 +23,6 @@
     <t>service_type</t>
   </si>
   <si>
-    <t>relevant</t>
-  </si>
-  <si>
     <t>price</t>
   </si>
   <si>
@@ -44,22 +41,19 @@
     <t>Cố định</t>
   </si>
   <si>
-    <t>Căn hộ</t>
-  </si>
-  <si>
-    <t>500000.00</t>
-  </si>
-  <si>
-    <t>tháng</t>
-  </si>
-  <si>
-    <t>Phí quản lý chung cư</t>
+    <t>200000.00</t>
+  </si>
+  <si>
+    <t>VNĐ/tháng</t>
+  </si>
+  <si>
+    <t>Phí quản lý chung cư hằng tháng</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>Điện</t>
+    <t>Tiền điện</t>
   </si>
   <si>
     <t>Tính theo sử dụng</t>
@@ -68,25 +62,61 @@
     <t>3500.00</t>
   </si>
   <si>
-    <t>kWh</t>
-  </si>
-  <si>
-    <t>Tính theo số điện sử dụng</t>
+    <t>VNĐ/kWh</t>
+  </si>
+  <si>
+    <t>Tính theo số kWh điện tiêu thụ</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>Nước</t>
-  </si>
-  <si>
-    <t>15000.00</t>
-  </si>
-  <si>
-    <t>m3</t>
-  </si>
-  <si>
-    <t>Tính theo lượng nước sử dụng</t>
+    <t>Tiền nước</t>
+  </si>
+  <si>
+    <t>7000.00</t>
+  </si>
+  <si>
+    <t>VNĐ/m³</t>
+  </si>
+  <si>
+    <t>Tính theo số mét khối nước tiêu thụ</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Gửi xe máy</t>
+  </si>
+  <si>
+    <t>100000.00</t>
+  </si>
+  <si>
+    <t>Phí gửi xe máy theo tháng</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>150000.00</t>
+  </si>
+  <si>
+    <t>Phí dịch vụ internet cố định hằng tháng</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Vệ sinh</t>
+  </si>
+  <si>
+    <t>75000.00</t>
+  </si>
+  <si>
+    <t>Tính theo tháng nếu căn hộ có đăng ký rác</t>
   </si>
 </sst>
 </file>
@@ -131,7 +161,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -156,77 +186,125 @@
       <c r="F1" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="0">
-        <v>6</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="D2" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="E2" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="F2" t="s" s="0">
         <v>11</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s" s="0">
-        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="D3" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="E3" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="D3" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s" s="0">
+      <c r="F3" t="s" s="0">
         <v>17</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="E4" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="C4" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s" s="0">
+      <c r="F4" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="E4" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>24</v>
+      <c r="F5" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/apartmentManage/Data/services.xlsx
+++ b/apartmentManage/Data/services.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>service_id</t>
   </si>
@@ -33,6 +33,84 @@
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Phí quản lý</t>
+  </si>
+  <si>
+    <t>Cố định</t>
+  </si>
+  <si>
+    <t>Căn hộ</t>
+  </si>
+  <si>
+    <t>500000.00</t>
+  </si>
+  <si>
+    <t>Tháng</t>
+  </si>
+  <si>
+    <t>Phí quản lý căn hộ hàng tháng</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Điện sinh hoạt</t>
+  </si>
+  <si>
+    <t>Tính theo sử dụng</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>kWh</t>
+  </si>
+  <si>
+    <t>Tiền điện theo đồng hồ đo</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Nước sinh hoạt</t>
+  </si>
+  <si>
+    <t>15000.00</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>Tiền nước theo sử dụng</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>200000.00</t>
+  </si>
+  <si>
+    <t>Phí internet cho cư dân chung cư</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Phí gửi xe</t>
+  </si>
+  <si>
+    <t>150000.00</t>
+  </si>
+  <si>
+    <t>Phí gửi xe máy hoặc ô tô</t>
   </si>
 </sst>
 </file>
@@ -77,7 +155,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -106,6 +184,121 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
